--- a/comparison_classes/bglc/tables/bglc-LM_arc_group_WRMSD.xlsx
+++ b/comparison_classes/bglc/tables/bglc-LM_arc_group_WRMSD.xlsx
@@ -9,22 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bglc-LM_arc_group_WRMSD" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'bglc-LM_arc_group_WRMSD'!$A$1:$F$38</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
+  <si>
+    <t>method</t>
+  </si>
   <si>
     <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>DFTB</t>
   </si>
   <si>
     <t>AM1</t>
@@ -39,116 +43,450 @@
     <t>PM6</t>
   </si>
   <si>
-    <t>4c1</t>
+    <t>n/a</t>
   </si>
   <si>
-    <t>oh5</t>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
-    <t>2h1</t>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
-    <t>2h3</t>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O3</t>
+    </r>
   </si>
   <si>
-    <t>4h5</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
-    <t>4h3</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5(0)</t>
+    </r>
   </si>
   <si>
-    <t>oh1</t>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1(0)</t>
+    </r>
   </si>
   <si>
-    <t>2e</t>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
-    <t>oe</t>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1(1)</t>
+    </r>
   </si>
   <si>
-    <t>e5</t>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
   </si>
   <si>
-    <t>e3</t>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
   </si>
   <si>
-    <t>e1</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5(1)</t>
+    </r>
   </si>
   <si>
-    <t>4e</t>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
-    <t>bo3</t>
+    <r>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
   </si>
   <si>
-    <t>1s3</t>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
   </si>
   <si>
-    <t>1s5</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
   </si>
   <si>
-    <t>3s1</t>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
-    <t>5s1</t>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
-    <t>b25</t>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
   </si>
   <si>
-    <t>14b</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
-    <t>os2</t>
-  </si>
-  <si>
-    <t>25b</t>
-  </si>
-  <si>
-    <t>5e</t>
-  </si>
-  <si>
-    <t>3e</t>
-  </si>
-  <si>
-    <t>1e</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>eo</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>5ho</t>
-  </si>
-  <si>
-    <t>3h2</t>
-  </si>
-  <si>
-    <t>5h4</t>
-  </si>
-  <si>
-    <t>1ho</t>
-  </si>
-  <si>
-    <t>3h4</t>
-  </si>
-  <si>
-    <t>1c4</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +621,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -582,19 +936,34 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="thin">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -610,45 +979,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -696,27 +1056,45 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1074,772 +1452,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="7" width="9.06640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>5.8100000000000001E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.179E-2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.3129999999999999E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.3129999999999999E-2</v>
-      </c>
-      <c r="F2" s="4">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1140000000000001E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.0880000000000001E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="G2" s="3">
         <v>5.4080000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.4970000000000004E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8.4970000000000004E-2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.478E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.1460000000000002E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.0430000000000006E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.2220000000000006E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.5199999999999997E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.0289999999999999E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.4459999999999998E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.6979999999999999E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.8449999999999998E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.8379999999999997E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5.7579999999999999E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.4339999999999994E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.8029999999999998E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.4650000000000003E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.1530000000000005E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8.6019999999999999E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.13128000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.2849999999999999E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.8919999999999995E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.0290000000000005E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.4720000000000003E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.4720000000000003E-2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.4619999999999999E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.6109999999999999E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.2229999999999997E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.0780000000000001E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.0780000000000001E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.9309999999999998E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.3610000000000001E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7.1260000000000004E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.1260000000000004E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.12225999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.7649999999999998E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.10213</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.3889999999999998E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.10091</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.11069</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.727E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.8239999999999999E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.10123</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.10756</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>8.4970000000000004E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>8.4970000000000004E-2</v>
-      </c>
-      <c r="F12" s="5"/>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.5239999999999999E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.631E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.913E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4.7829999999999998E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.63E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.1449999999999998E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.7540000000000001E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.16628999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.3419999999999998E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.27006000000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9.7129999999999994E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.1940000000000004E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.9769999999999999E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.1209999999999999E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2.0820000000000002E-2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3.3550000000000003E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7.0430000000000006E-2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>7.2220000000000006E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4.5199999999999997E-2</v>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.13070999999999999</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.14154</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3.6979999999999999E-2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3.8449999999999998E-2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3.8379999999999997E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5.7579999999999999E-2</v>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.33633000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>8.4650000000000003E-2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>8.1530000000000005E-2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>8.6019999999999999E-2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.13128000000000001</v>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.23216000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.23216000000000001</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2.5430000000000001E-2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>7.0290000000000005E-2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4.4720000000000003E-2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.4720000000000003E-2</v>
-      </c>
-      <c r="F18" s="5"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.37272</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.37272</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1.6279999999999999E-2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4.2229999999999997E-2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6.0780000000000001E-2</v>
-      </c>
-      <c r="E19" s="5">
-        <v>6.0780000000000001E-2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>3.9309999999999998E-2</v>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.24060999999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.38423000000000002</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.38423000000000002</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.27004</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3.2280000000000003E-2</v>
-      </c>
-      <c r="C20" s="5">
-        <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>7.1260000000000004E-2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>7.1260000000000004E-2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.12225999999999999</v>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.40523999999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.31153999999999998</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.17729</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.10213</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4.3889999999999998E-2</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.10091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5">
-        <v>5.0840000000000003E-2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8.8239999999999999E-2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.10123</v>
-      </c>
-      <c r="E22" s="5">
-        <v>9.5100000000000004E-2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.10756</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1.6590000000000001E-2</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2.631E-2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4.913E-2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>4.7829999999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2.419E-2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6.1449999999999998E-2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5.7540000000000001E-2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.16628999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5">
-        <v>2.5229999999999999E-2</v>
-      </c>
-      <c r="C25" s="5">
-        <v>9.7129999999999994E-2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>7.1940000000000004E-2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>6.9769999999999999E-2</v>
-      </c>
-      <c r="F25" s="5">
-        <v>9.1209999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
-        <v>0.13070999999999999</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>0.14154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <v>0.19542999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5">
-        <v>0.22525999999999999</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0.23216000000000001</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5">
-        <v>0.37272</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.37272</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
-        <v>0.24060999999999999</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0.38423000000000002</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.38423000000000002</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0.27004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5">
-        <v>7.7499999999999999E-3</v>
-      </c>
-      <c r="C37" s="5">
-        <v>7.1500000000000001E-3</v>
-      </c>
-      <c r="D37" s="5">
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="E37" s="5">
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="F37" s="5">
-        <v>6.9320000000000007E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1.891E-2</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2.232E-2</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="B21" s="3">
+        <v>3.2660000000000002E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.883E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.2419999999999999E-2</v>
+      </c>
+      <c r="E21" s="3">
         <v>3.6450000000000003E-2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F21" s="3">
         <v>3.4880000000000001E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G21" s="3">
         <v>4.9230000000000003E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F2">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:F6">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F7">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:F8">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:F9">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:F10">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F11">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:F13">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:F14">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F15">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:F16">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:F17">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:F18">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:F19">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -1851,7 +1959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:F20">
+  <conditionalFormatting sqref="B3:G3">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1863,7 +1971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:F21">
+  <conditionalFormatting sqref="B4:G4">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1875,7 +1983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:F22">
+  <conditionalFormatting sqref="B5:G5">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1887,7 +1995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:F23">
+  <conditionalFormatting sqref="B6:G6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1899,7 +2007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:F24">
+  <conditionalFormatting sqref="B7:G7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1911,7 +2019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
+  <conditionalFormatting sqref="B8:G8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1923,7 +2031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
+  <conditionalFormatting sqref="B9:G9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1935,7 +2043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
+  <conditionalFormatting sqref="B10:G10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1947,7 +2055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
+  <conditionalFormatting sqref="B11:G11">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1959,7 +2067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
+  <conditionalFormatting sqref="B12:G12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1971,7 +2079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
+  <conditionalFormatting sqref="B13:G13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1983,7 +2091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:F31">
+  <conditionalFormatting sqref="B14:G14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1995,7 +2103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
+  <conditionalFormatting sqref="B15:G15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2007,7 +2115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
+  <conditionalFormatting sqref="B16:G16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2019,7 +2127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
+  <conditionalFormatting sqref="B17:G17">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2031,7 +2139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
+  <conditionalFormatting sqref="B18:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2043,7 +2151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F36">
+  <conditionalFormatting sqref="B19:G19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2055,7 +2163,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
+  <conditionalFormatting sqref="B20:G20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2067,7 +2175,722 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:F38">
+  <conditionalFormatting sqref="B21:G21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
+    <col min="2" max="21" width="6.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1.1140000000000001E-2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4.478E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.0289999999999999E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>6.4339999999999994E-2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.2849999999999999E-2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.4619999999999999E-2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.11069</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="N2" s="7">
+        <v>3.3419999999999998E-2</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="8">
+        <v>3.2660000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3.1460000000000002E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3.4459999999999998E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5.8029999999999998E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>6.8919999999999995E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.6109999999999999E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3.3610000000000001E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>4.7649999999999998E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>4.727E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2.5239999999999999E-2</v>
+      </c>
+      <c r="M3" s="9">
+        <v>2.63E-2</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.27006000000000002</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.40523999999999999</v>
+      </c>
+      <c r="U3" s="10">
+        <v>1.883E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1.0880000000000001E-2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.6979999999999999E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>8.4650000000000003E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7.0290000000000005E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>4.2229999999999997E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.10213</v>
+      </c>
+      <c r="K4" s="9">
+        <v>8.8239999999999999E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2.631E-2</v>
+      </c>
+      <c r="M4" s="9">
+        <v>6.1449999999999998E-2</v>
+      </c>
+      <c r="N4" s="9">
+        <v>9.7129999999999994E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.13070999999999999</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.24060999999999999</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="U4" s="10">
+        <v>2.2419999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8.4970000000000004E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7.0430000000000006E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.8449999999999998E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8.1530000000000005E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4.4720000000000003E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6.0780000000000001E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7.1260000000000004E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4.3889999999999998E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.10123</v>
+      </c>
+      <c r="L5" s="9">
+        <v>4.913E-2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5.7540000000000001E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>7.1940000000000004E-2</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.23216000000000001</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.37272</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.38423000000000002</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.31153999999999998</v>
+      </c>
+      <c r="U5" s="10">
+        <v>3.6450000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>8.4970000000000004E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7.2220000000000006E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.8379999999999997E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.6019999999999999E-2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4.4720000000000003E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>6.0780000000000001E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7.1260000000000004E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="M6" s="9">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>6.9769999999999999E-2</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.23216000000000001</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.37272</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.38423000000000002</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="10">
+        <v>3.4880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5.4080000000000003E-2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5.7579999999999999E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.13128000000000001</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3.9309999999999998E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.12225999999999999</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.10091</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.10756</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4.7829999999999998E-2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.16628999999999999</v>
+      </c>
+      <c r="N7" s="9">
+        <v>9.1209999999999999E-2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.14154</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.33633000000000002</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.27004</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.17729</v>
+      </c>
+      <c r="U7" s="10">
+        <v>4.9230000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K7">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
